--- a/Work/design/item_concept.xlsx
+++ b/Work/design/item_concept.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>grade</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -171,6 +171,14 @@
   </si>
   <si>
     <t>needItemCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concept Color</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grade</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -564,7 +572,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -588,6 +596,12 @@
       <c r="F1" t="s">
         <v>15</v>
       </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -601,7 +615,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="3">
-        <f>$F2/SUM($F$2:$F$7)</f>
+        <f t="shared" ref="G2:G7" si="0">$F2/SUM($F$2:$F$7)</f>
         <v>0.5</v>
       </c>
       <c r="I2">
@@ -631,7 +645,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="3">
-        <f>$F3/SUM($F$2:$F$7)</f>
+        <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="I3">
@@ -661,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="3">
-        <f>$F4/SUM($F$2:$F$7)</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="I4">
@@ -685,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="3">
-        <f>$F5/SUM($F$2:$F$7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P5" t="s">
@@ -707,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <f>$F6/SUM($F$2:$F$7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6">
@@ -731,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <f>$F7/SUM($F$2:$F$7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7">
